--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\GitHub\excel-test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itms1/Documents/GitHub/excel-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59D577CD-0C1A-4091-84EB-5F3ACA503943}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51D8D9B-B2DA-D54B-AFF4-21397A2A4D9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6570" yWindow="1095" windowWidth="21600" windowHeight="11385" xr2:uid="{E7080177-965F-4FE4-A671-CD6EB1A9F22B}"/>
+    <workbookView xWindow="4000" yWindow="1100" windowWidth="21600" windowHeight="11380" xr2:uid="{E7080177-965F-4FE4-A671-CD6EB1A9F22B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Test Excel</t>
+  </si>
+  <si>
+    <t>Max was here</t>
   </si>
 </sst>
 </file>
@@ -379,15 +382,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49FD740E-98B7-4C73-993B-445B9DC2B9DA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itms1/Documents/GitHub/excel-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51D8D9B-B2DA-D54B-AFF4-21397A2A4D9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE27D30A-3B2D-FE42-891B-1C6074EFDD79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4000" yWindow="1100" windowWidth="21600" windowHeight="11380" xr2:uid="{E7080177-965F-4FE4-A671-CD6EB1A9F22B}"/>
   </bookViews>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Test Excel</t>
   </si>
   <si>
     <t>Max was here</t>
+  </si>
+  <si>
+    <t>here</t>
   </si>
 </sst>
 </file>
@@ -382,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49FD740E-98B7-4C73-993B-445B9DC2B9DA}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -403,6 +406,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
